--- a/convert.excel/02.users-users_coupon-users_follow.xlsx
+++ b/convert.excel/02.users-users_coupon-users_follow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Tech it_資料庫導入\convert.excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABD46B2-CE09-4983-A719-3B179F026946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F3FDE77-4481-40B0-A597-A16F4EDDF8D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1725" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17820" yWindow="3750" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="1" r:id="rId1"/>
@@ -22,39 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="141">
   <si>
     <t>user_id</t>
   </si>
   <si>
     <t>email</t>
-  </si>
-  <si>
-    <t>pwd</t>
-  </si>
-  <si>
-    <t>user_name</t>
-  </si>
-  <si>
-    <t>photo_sticker</t>
-  </si>
-  <si>
-    <t>phone_number</t>
-  </si>
-  <si>
-    <t>birthday</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>store_a</t>
-  </si>
-  <si>
-    <t>store_b</t>
   </si>
   <si>
     <t>store_isDefault</t>
@@ -441,6 +414,50 @@
     <t>sophia01</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>pwd</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_name</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>photo_sticker</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone_number</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>birthday</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>class</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>store_a</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>store_b</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -449,7 +466,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -508,6 +525,20 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -535,7 +566,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -566,6 +597,8 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -786,8 +819,8 @@
   </sheetPr>
   <dimension ref="A1:Z985"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -797,41 +830,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" s="20" t="s">
+        <v>130</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
+      <c r="B1" s="21" t="s">
+        <v>131</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
+      <c r="C1" s="21" t="s">
+        <v>132</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
+      <c r="D1" s="21" t="s">
+        <v>133</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
+      <c r="E1" s="21" t="s">
+        <v>134</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
+      <c r="F1" s="21" t="s">
+        <v>135</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
+      <c r="G1" s="21" t="s">
+        <v>136</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
+      <c r="H1" s="21" t="s">
+        <v>137</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
+      <c r="I1" s="21" t="s">
+        <v>138</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
+      <c r="J1" s="21" t="s">
+        <v>139</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
+      <c r="K1" s="21" t="s">
+        <v>140</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
@@ -849,36 +882,38 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A2" s="3"/>
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
       <c r="B2" s="4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G2" s="3">
         <v>20210801</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
@@ -897,36 +932,38 @@
       <c r="Z2" s="4"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A3" s="3"/>
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
       <c r="B3" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G3" s="3">
         <v>20210802</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
@@ -945,36 +982,38 @@
       <c r="Z3" s="4"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A4" s="3"/>
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
       <c r="B4" s="4" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G4" s="3">
         <v>20210803</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
@@ -993,36 +1032,38 @@
       <c r="Z4" s="4"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A5" s="3"/>
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
       <c r="B5" s="4" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G5" s="3">
         <v>20210804</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
@@ -1041,36 +1082,38 @@
       <c r="Z5" s="4"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A6" s="3"/>
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
       <c r="B6" s="4" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G6" s="3">
         <v>20210805</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
@@ -1089,36 +1132,38 @@
       <c r="Z6" s="4"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A7" s="3"/>
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
       <c r="B7" s="4" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G7" s="3">
         <v>20210806</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
@@ -1137,36 +1182,38 @@
       <c r="Z7" s="4"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A8" s="3"/>
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
       <c r="B8" s="4" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G8" s="3">
         <v>20210807</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
@@ -1185,36 +1232,38 @@
       <c r="Z8" s="4"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A9" s="3"/>
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
       <c r="B9" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="G9" s="3">
         <v>20210808</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
@@ -1233,36 +1282,38 @@
       <c r="Z9" s="4"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A10" s="3"/>
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
       <c r="B10" s="4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G10" s="3">
         <v>20210809</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
@@ -1281,36 +1332,38 @@
       <c r="Z10" s="4"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A11" s="3"/>
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
       <c r="B11" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G11" s="3">
         <v>20210810</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
@@ -28614,7 +28667,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -28624,22 +28677,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
@@ -28647,16 +28700,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F2" s="3">
         <v>0.9</v>
@@ -28670,16 +28723,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="F3" s="3">
         <v>100</v>
@@ -28693,16 +28746,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F4" s="3">
         <v>0.9</v>
@@ -28716,16 +28769,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C5" s="3">
         <v>0</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="F5" s="3">
         <v>100</v>
@@ -28739,16 +28792,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F6" s="3">
         <v>0.9</v>
@@ -28762,16 +28815,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C7" s="3">
         <v>0</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="F7" s="3">
         <v>100</v>
@@ -28785,16 +28838,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F8" s="3">
         <v>0.9</v>
@@ -28808,16 +28861,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="F9" s="3">
         <v>100</v>
@@ -28831,16 +28884,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F10" s="3">
         <v>0.9</v>
@@ -28854,16 +28907,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C11" s="3">
         <v>0</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="F11" s="3">
         <v>100</v>
@@ -28885,7 +28938,7 @@
   </sheetPr>
   <dimension ref="A1:AA963"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
@@ -28896,67 +28949,67 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="N1" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="O1" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="V1" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="U1" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="V1" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
@@ -28967,61 +29020,61 @@
     <row r="2" spans="1:27" ht="15.75" customHeight="1">
       <c r="A2" s="10"/>
       <c r="B2" s="11" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="G2" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="M2" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="12" t="s">
+      <c r="N2" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="M2" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>113</v>
-      </c>
       <c r="O2" s="18" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="Q2" s="11" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R2" s="12" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="S2" s="11" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="T2" s="12" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="U2" s="16">
         <v>99999</v>
@@ -29038,61 +29091,61 @@
     <row r="3" spans="1:27" ht="15.75" customHeight="1">
       <c r="A3" s="10"/>
       <c r="B3" s="12" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D3" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="S3" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="N3" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q3" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="R3" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="S3" s="12" t="s">
-        <v>109</v>
-      </c>
       <c r="T3" s="12" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="U3" s="16">
         <v>6666</v>
@@ -29109,61 +29162,61 @@
     <row r="4" spans="1:27" ht="15.75" customHeight="1">
       <c r="A4" s="10"/>
       <c r="B4" s="12" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="G4" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="M4" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="12" t="s">
+      <c r="N4" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="M4" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>113</v>
-      </c>
       <c r="O4" s="12" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="Q4" s="11" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="R4" s="12" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="S4" s="12" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="U4" s="16">
         <v>6666</v>
@@ -29180,61 +29233,61 @@
     <row r="5" spans="1:27" ht="15.75" customHeight="1">
       <c r="A5" s="10"/>
       <c r="B5" s="12" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D5" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q5" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="R5" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="S5" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="N5" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="O5" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="P5" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q5" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="R5" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="S5" s="12" t="s">
-        <v>109</v>
-      </c>
       <c r="T5" s="12" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="U5" s="16">
         <v>6666</v>
@@ -29251,61 +29304,61 @@
     <row r="6" spans="1:27" ht="15.75" customHeight="1">
       <c r="A6" s="10"/>
       <c r="B6" s="12" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="G6" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="M6" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="H6" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="12" t="s">
+      <c r="N6" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="M6" s="12" t="s">
-        <v>112</v>
+      <c r="O6" s="12" t="s">
+        <v>105</v>
       </c>
-      <c r="N6" s="12" t="s">
+      <c r="P6" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q6" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="O6" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="P6" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q6" s="12" t="s">
-        <v>122</v>
-      </c>
       <c r="R6" s="12" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="S6" s="12" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="T6" s="12" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="U6" s="16">
         <v>6666</v>
@@ -29322,61 +29375,61 @@
     <row r="7" spans="1:27" ht="15.75" customHeight="1">
       <c r="A7" s="10"/>
       <c r="B7" s="12" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D7" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q7" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="S7" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="E7" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="N7" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="O7" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="P7" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q7" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="R7" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="S7" s="12" t="s">
-        <v>109</v>
-      </c>
       <c r="T7" s="12" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="U7" s="16">
         <v>6666</v>
@@ -29393,61 +29446,61 @@
     <row r="8" spans="1:27" ht="15.75" customHeight="1">
       <c r="A8" s="10"/>
       <c r="B8" s="12" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E8" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="P8" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q8" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="F8" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="M8" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="N8" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="O8" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="P8" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q8" s="11" t="s">
-        <v>128</v>
-      </c>
       <c r="R8" s="12" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="S8" s="12" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="T8" s="12" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="U8" s="16">
         <v>6666</v>
@@ -29464,61 +29517,61 @@
     <row r="9" spans="1:27" ht="15.75" customHeight="1">
       <c r="A9" s="10"/>
       <c r="B9" s="12" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D9" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="N9" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q9" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="R9" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="S9" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="E9" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="M9" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="N9" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="O9" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="P9" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q9" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="R9" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="S9" s="12" t="s">
-        <v>109</v>
-      </c>
       <c r="T9" s="12" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="U9" s="16">
         <v>6666</v>
@@ -29535,61 +29588,61 @@
     <row r="10" spans="1:27" ht="15.75" customHeight="1">
       <c r="A10" s="10"/>
       <c r="B10" s="12" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="G10" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="M10" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="H10" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L10" s="12" t="s">
+      <c r="N10" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="M10" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="N10" s="12" t="s">
-        <v>113</v>
-      </c>
       <c r="O10" s="12" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="P10" s="12" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="12" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="R10" s="12" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="S10" s="12" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="T10" s="12" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="U10" s="16">
         <v>6666</v>
@@ -29606,61 +29659,61 @@
     <row r="11" spans="1:27" ht="15.75" customHeight="1">
       <c r="A11" s="10"/>
       <c r="B11" s="12" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="J11" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="N11" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="P11" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="K11" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="L11" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="M11" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="N11" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="O11" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="P11" s="12" t="s">
-        <v>74</v>
-      </c>
       <c r="Q11" s="11" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R11" s="12" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="S11" s="12">
         <v>183</v>
       </c>
       <c r="T11" s="12" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="U11" s="16">
         <v>6666</v>

--- a/convert.excel/02.users-users_coupon-users_follow.xlsx
+++ b/convert.excel/02.users-users_coupon-users_follow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Tech it_資料庫導入\convert.excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F3FDE77-4481-40B0-A597-A16F4EDDF8D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E24CFE-0C35-44C5-AE44-021473171344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17820" yWindow="3750" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8595" yWindow="5910" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="1" r:id="rId1"/>
@@ -199,24 +199,6 @@
   </si>
   <si>
     <t>松山店</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>isUsed</t>
-  </si>
-  <si>
-    <t>content</t>
-  </si>
-  <si>
-    <t>discount_func</t>
-  </si>
-  <si>
-    <t>discount</t>
-  </si>
-  <si>
-    <t>deadline</t>
   </si>
   <si>
     <t>code100</t>
@@ -458,6 +440,30 @@
     <t>store_b</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>isUsed</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>discount_func</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>discount</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>deadline</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -466,7 +472,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -539,6 +545,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -566,7 +579,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -599,6 +612,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -819,7 +833,7 @@
   </sheetPr>
   <dimension ref="A1:Z985"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
@@ -831,37 +845,37 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="I1" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="K1" s="21" t="s">
         <v>134</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>140</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>2</v>
@@ -892,7 +906,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>10</v>
@@ -28666,8 +28680,8 @@
   </sheetPr>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -28676,23 +28690,23 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>59</v>
+      <c r="B1" s="22" t="s">
+        <v>135</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>60</v>
+      <c r="C1" s="21" t="s">
+        <v>136</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>61</v>
+      <c r="D1" s="21" t="s">
+        <v>137</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>62</v>
+      <c r="E1" s="21" t="s">
+        <v>138</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>63</v>
+      <c r="F1" s="21" t="s">
+        <v>139</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>64</v>
+      <c r="G1" s="21" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
@@ -28700,16 +28714,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F2" s="3">
         <v>0.9</v>
@@ -28723,16 +28737,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F3" s="3">
         <v>100</v>
@@ -28746,16 +28760,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F4" s="3">
         <v>0.9</v>
@@ -28769,16 +28783,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C5" s="3">
         <v>0</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F5" s="3">
         <v>100</v>
@@ -28792,16 +28806,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F6" s="3">
         <v>0.9</v>
@@ -28815,16 +28829,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C7" s="3">
         <v>0</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F7" s="3">
         <v>100</v>
@@ -28838,16 +28852,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F8" s="3">
         <v>0.9</v>
@@ -28861,16 +28875,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F9" s="3">
         <v>100</v>
@@ -28884,16 +28898,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F10" s="3">
         <v>0.9</v>
@@ -28907,16 +28921,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C11" s="3">
         <v>0</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F11" s="3">
         <v>100</v>
@@ -28949,67 +28963,67 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="K1" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="L1" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="V1" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="U1" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="V1" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
@@ -29020,22 +29034,22 @@
     <row r="2" spans="1:27" ht="15.75" customHeight="1">
       <c r="A2" s="10"/>
       <c r="B2" s="11" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>7</v>
@@ -29050,28 +29064,28 @@
         <v>13</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="O2" s="18" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="Q2" s="11" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="R2" s="12" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="S2" s="11" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="T2" s="12" t="s">
         <v>9</v>
@@ -29091,22 +29105,22 @@
     <row r="3" spans="1:27" ht="15.75" customHeight="1">
       <c r="A3" s="10"/>
       <c r="B3" s="12" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>14</v>
@@ -29121,28 +29135,28 @@
         <v>4</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="Q3" s="11" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="R3" s="12" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="S3" s="12" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="T3" s="12" t="s">
         <v>16</v>
@@ -29162,22 +29176,22 @@
     <row r="4" spans="1:27" ht="15.75" customHeight="1">
       <c r="A4" s="10"/>
       <c r="B4" s="12" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>19</v>
@@ -29192,28 +29206,28 @@
         <v>13</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="Q4" s="11" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="R4" s="12" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="S4" s="12" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="T4" s="12" t="s">
         <v>21</v>
@@ -29233,22 +29247,22 @@
     <row r="5" spans="1:27" ht="15.75" customHeight="1">
       <c r="A5" s="10"/>
       <c r="B5" s="12" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>25</v>
@@ -29263,28 +29277,28 @@
         <v>4</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="O5" s="12" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="Q5" s="11" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="R5" s="12" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="S5" s="12" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="T5" s="12" t="s">
         <v>27</v>
@@ -29304,22 +29318,22 @@
     <row r="6" spans="1:27" ht="15.75" customHeight="1">
       <c r="A6" s="10"/>
       <c r="B6" s="12" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>31</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>31</v>
@@ -29334,28 +29348,28 @@
         <v>13</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="O6" s="12" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="Q6" s="12" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="R6" s="12" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="S6" s="12" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="T6" s="12" t="s">
         <v>33</v>
@@ -29375,22 +29389,22 @@
     <row r="7" spans="1:27" ht="15.75" customHeight="1">
       <c r="A7" s="10"/>
       <c r="B7" s="12" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>37</v>
@@ -29405,28 +29419,28 @@
         <v>4</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="N7" s="15" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="P7" s="12" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="Q7" s="11" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="R7" s="12" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="S7" s="12" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="T7" s="12" t="s">
         <v>39</v>
@@ -29446,22 +29460,22 @@
     <row r="8" spans="1:27" ht="15.75" customHeight="1">
       <c r="A8" s="10"/>
       <c r="B8" s="12" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>41</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H8" s="12" t="s">
         <v>41</v>
@@ -29476,28 +29490,28 @@
         <v>13</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="P8" s="12" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="Q8" s="11" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="R8" s="12" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="S8" s="12" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="T8" s="12" t="s">
         <v>43</v>
@@ -29517,22 +29531,22 @@
     <row r="9" spans="1:27" ht="15.75" customHeight="1">
       <c r="A9" s="10"/>
       <c r="B9" s="12" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>45</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>45</v>
@@ -29547,28 +29561,28 @@
         <v>4</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="N9" s="15" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="P9" s="12" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="11" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="R9" s="12" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="S9" s="12" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="T9" s="12" t="s">
         <v>47</v>
@@ -29588,22 +29602,22 @@
     <row r="10" spans="1:27" ht="15.75" customHeight="1">
       <c r="A10" s="10"/>
       <c r="B10" s="12" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>49</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>49</v>
@@ -29618,28 +29632,28 @@
         <v>13</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="O10" s="12" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="P10" s="12" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="Q10" s="12" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="R10" s="12" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="S10" s="12" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="T10" s="12" t="s">
         <v>51</v>
@@ -29659,22 +29673,22 @@
     <row r="11" spans="1:27" ht="15.75" customHeight="1">
       <c r="A11" s="10"/>
       <c r="B11" s="12" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>53</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H11" s="12" t="s">
         <v>53</v>
@@ -29689,25 +29703,25 @@
         <v>4</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="N11" s="15" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="O11" s="12" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="P11" s="12" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="Q11" s="11" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="R11" s="12" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="S11" s="12">
         <v>183</v>
